--- a/HealthBot.Client/Resources/Localization - Custom strings.xlsx
+++ b/HealthBot.Client/Resources/Localization - Custom strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22711"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proof of concepts\Healthbot - Generic\HealthBot.Client\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/68d1141f9addf33b/Dokumente/GitHub/Healthbot-Covid-Snippets/HealthBot.Client/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C4D45-BF7F-4574-88F8-7AEF45715E52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD3CC85-56F6-4F56-BDC4-41DE0B0CBB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Custom Localization" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="276">
   <si>
     <t>String ID</t>
   </si>
@@ -663,16 +663,239 @@
   </si>
   <si>
     <t>- *Kronisk sjukdom: lungsjukdom, hjärt-kärlsjukdom, kronisk njursjukdom, kronisk leversjukdom, diabetes, muskelsjukdom eller andra kroniska sjukdomar med ökad risk för lungkomplikationer.\n- **Impaired Nedsatt immunförsvar: Cancerpatienter med cellgifter eller strålbehandling, kroniska blodsjukdomar, organtransplantationsmottagare, eller andra sjukdomar, där du genomgår läkemedelsbehandling som minskar immunförsvaret.</t>
+  </si>
+  <si>
+    <t>de-de</t>
+  </si>
+  <si>
+    <t>tr-tr</t>
+  </si>
+  <si>
+    <t>Leiden Sie unter Kurzatmigkeit und Atembeschwerden oder haben Sie starke Schmerzen?</t>
+  </si>
+  <si>
+    <t>Nefes darlığı ve nefes alma zorluklarınız var mı veya şiddetli ağrınız var mı?</t>
+  </si>
+  <si>
+    <t>Wir möchten so schnell wie möglich mit Ihnen sprechen.  Sie können uns telefonisch erreichen unter xxxx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sizinle en kısa zamanda konuşmak istiyoruz. Bize </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'ten telefonla ulaşabilirsiniz</t>
+    </r>
+  </si>
+  <si>
+    <t>**Bleiben Sie zu Hause, bis Sie frei von Symptomen sind.** Wenn sich Ihre Symptome verschlimmern und Sie Atemnot oder schnelle Atmung verspüren, sollten Sie uns sofort anrufen.</t>
+  </si>
+  <si>
+    <t>** Semptom kalmayıncaya kadar evde kalın.** Belirtileriniz kötüleşirse ve nefes darlığı veya hızlı nefes alıyorsanız, hemen bizi aramalısınız.</t>
+  </si>
+  <si>
+    <t>Haben Sie die folgenden grippeähnlichen Symptome? \r\n- Fieber (&gt; 38 Grad)\r\n- Husten\r\n- Halsschmerzen oder Erkältung\r\n- Kopf- oder Muskelschmerzen\r\n</t>
+  </si>
+  <si>
+    <t>Grip benzeri semptomlarınız var mı? Örnek olarak \r\n- Ateş (&gt; 38 derece)\r\n- Öksürük\r\n- Boğaz ağrısı veya soğuk algınlığı\r\n- Baş veya kas ağrısı\r\n</t>
+  </si>
+  <si>
+    <t>Hat sich eines dieser Symptome in den letzten Tagen verschlimmert?</t>
+  </si>
+  <si>
+    <t>Bu semptomlardan herhangi biri son birkaç gün içinde kötüleşti mi?</t>
+  </si>
+  <si>
+    <t>Da Sie zu einer Hochrisikogruppe gehören, müssen Sie genau aufpassen, wenn Sie anfangen, irgendwelche Symptome zu zeigen.</t>
+  </si>
+  <si>
+    <t>Yüksek riskli bir gruba ait siniz, herhangi bir belirti göstermeye başladığınızda dikkatli olmanız gerekir.</t>
+  </si>
+  <si>
+    <t>Sie haben derzeit keine Coronavirus-Symptome. \r\n\r\r\nSicherstellen, dass Sie sich und andere schützen:\n\r\r\n- Waschen Sie sich häufig die Hände und verwenden Sie Handdesinfektionsmittel\r\n Husten oder Niesen im Ärmel\r\n Beschränken Sie den Körperkontakt. Achten Sie auf Ihre Lieben und vermeiden Sie engen Körperkontakt mit anderen Personen außerhalb des Hauses:\r\n- Achten Sie auf Ihre persönliche Hygiene\r\n- Ältere und chronisch kranke Menschen: Halten Sie Abstand und bitten Sie andere um Rücksicht.</t>
+  </si>
+  <si>
+    <t>Şu anda koronavirüs belirtiniz yok. \r\n\r\r\nKendinizi ve başkalarını koruduğunuzdan emin olun:\n\r\r\n- Ellerinizi sık sık yıkayın ve el dezenfektanları kullanın\r\n Kolun içine öksürmek ve hapşırmak \r\n Insanlara fiziksel yakınlığı sınırlayın. Sevdiklerinize iyi bakın ve evin dışındaki insanlarla yakın fiziksel temastan kaçının:\r\n- Kişisel hijyeninize dikkat edin\r\n- Yaşlılar ve kronik olarak hasta olanlara duyuru: Lütfen başka insanlara yakin olmayın ve önemli olan mesafeyi koruyun.</t>
+  </si>
+  <si>
+    <t>Möchten Sie einige Fragen beantworten, die im Kampf gegen das Coronavirus hilfreich sein könnten?</t>
+  </si>
+  <si>
+    <t>Korona virüsüyle hakkinda yardımcı olabilecek birkaç soruyu cevaplamak ister misiniz?</t>
+  </si>
+  <si>
+    <t>Vielen Dank für die Nutzung des Selbstbewertungsinstruments. Weitere Informationen finden Sie unter **[Website.it](http://www.salute.gov.it/portale/nuovocoronavirus/homeNuovoCoronavirus.jsp)** und bei den Behörden</t>
+  </si>
+  <si>
+    <t>Bu systemini kullandığınız için teşekkür ederiz. Daha fazla bilgi için: **[Website.it](http://www.salute.gov.it/portale/nuovocoronavirus/homeNuovoCoronavirus.jsp)** ve yetkililerle bulabilirsiniz</t>
+  </si>
+  <si>
+    <t>Sizinle en kısa zamanda konuşmak istiyoruz. Bize xxxx'ten telefonla ulaşabilirsiniz</t>
+  </si>
+  <si>
+    <t>Grip benzeri semptomlarınız var mı? Örnek olarak \r\n-  Ateş (&gt; 38 derece)\r\n- Öksürük\r\n- Boğaz ağrısı veya soğuk algınlığı\r\n- Baş veya kas ağrısı\r\n</t>
+  </si>
+  <si>
+    <t>["Evet"]</t>
+  </si>
+  <si>
+    <t>("Ja", "Nein")</t>
+  </si>
+  <si>
+    <t>("Evet", "Hayir")</t>
+  </si>
+  <si>
+    <t>Bitte erzählen Sie uns etwas über sich selbst</t>
+  </si>
+  <si>
+    <t>Lütfen bize kendin hakkında bir şeyler söyle</t>
+  </si>
+  <si>
+    <t>Wir brauchen Ihre Hilfe im Kampf gegen das Coronavirus. Das folgende Formular ist optional</t>
+  </si>
+  <si>
+    <t>Korona virüsüyle mücadelede yardımınıza ihtiyacımız var. Bu form sizin isteğenize bağlıdır</t>
+  </si>
+  <si>
+    <t>Ihr Standort</t>
+  </si>
+  <si>
+    <t>Konumunuz</t>
+  </si>
+  <si>
+    <t>Ihr Alter</t>
+  </si>
+  <si>
+    <t>Yaşınız</t>
+  </si>
+  <si>
+    <t>Ihr Geschlecht</t>
+  </si>
+  <si>
+    <t>Cinsiyetiniz</t>
+  </si>
+  <si>
+    <t>Männlich</t>
+  </si>
+  <si>
+    <t>erkek</t>
+  </si>
+  <si>
+    <t>Weiblich</t>
+  </si>
+  <si>
+    <t>kadın</t>
+  </si>
+  <si>
+    <t>diğer</t>
+  </si>
+  <si>
+    <t>War dieses Selbstbewertungsinstrument für Sie nützlich?</t>
+  </si>
+  <si>
+    <t>Bu öz değerlendirme systemi sizin için yararlı oldu mu?</t>
+  </si>
+  <si>
+    <t>Evet</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>Hayir</t>
+  </si>
+  <si>
+    <t>Haben Sie Anmerkungen zu Verbesserungen?</t>
+  </si>
+  <si>
+    <t>Geliştirmeler hakkında yorumlarınız var mi?</t>
+  </si>
+  <si>
+    <t>Senden Sie Ihre Antworten</t>
+  </si>
+  <si>
+    <t>Yanıtlarınızı gönderin</t>
+  </si>
+  <si>
+    <t>Nein danke, senden Sie meine Antworten nicht.</t>
+  </si>
+  <si>
+    <t>Hayır teşekkürler, cevaplarımı gönderme.</t>
+  </si>
+  <si>
+    <t>https://storageaccountcovidb8a3.blob.core.windows.net/covid-germany/Header.png</t>
+  </si>
+  <si>
+    <t>Gehören Sie zu einer Hochrisikogruppe?</t>
+  </si>
+  <si>
+    <t>Yüksek riskli bir gruba mensup musunuz?</t>
+  </si>
+  <si>
+    <t>- Sind Sie über 65 Jahre alt? Haben Sie eine chronische Krankheit? Haben Sie ein geschwächtes oder fehlendes Immunsystem??? Sind Sie fettleibig (BMI über 35-40)??? Sind Sie im zweiten oder dritten Trimester schwanger oder haben Sie innerhalb der letzten zwei Wochen entbunden?</t>
+  </si>
+  <si>
+    <t>- 65 yaşından büyük müsünüz? Kronik bir hastalığınız var mı? Zayıf veya eksik bir bağışıklık sistemine sahip misiniz??? Obez misiniz (BMI 35-40 üstümü)??? İkinci veya üçüncü üç aylar dönemde hamile misiniz veya son iki hafta içinde doğum yaptınız mı?</t>
+  </si>
+  <si>
+    <t>Mehr Informationen</t>
+  </si>
+  <si>
+    <t>Daha fazla bilgi</t>
+  </si>
+  <si>
+    <t>- *Chronische Krankheit: Lungenkrankheit, Herz-Kreislauf-Erkrankungen, chronische Nierenkrankheit, chronische Leberkrankheit, Diabetes, Muskelkrankheit oder andere chronische Krankheiten mit erhöhtem Risiko für Lungenkomplikationen. **Impaired Immune Defense: Krebspatienten in Chemo- oder Strahlentherapie, chronische Blutkrankheiten, Empfänger von Organtransplantationen oder andere Krankheiten, bei denen Sie sich einer medikamentösen Behandlung unterziehen, die das Immunsystem reduziert.</t>
+  </si>
+  <si>
+    <t>- *Kronik hastalık: akciğer hastalığı, kardiyovasküler hastalık, kronik böbrek hastalığı, kronik karaciğer hastalığı, diyabet, kas hastalığı veya akciğer komplikasyonları riski yüksek olan diğer kronik hastalıklar.**Impaired Immune Defense: Kemoterapi veya radyasyon terapisinde kanser hastaları, kronik kan hastalıkları, organ nakli alıcıları veya bağışıklık sistemini azaltan ilaç tedavisi gördüğünüz diğer hastalıklar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">![Logo](https://storageaccountcovidb8a3.blob.core.windows.net/covid-nl/Header.png)\r\n\nHi, ich bin hier, um Sie durch eine Beurteilung der Koronakrankheit zu führen. Wenn Sie einen medizinischen Notfall oder eine lebensbedrohliche Situation haben, wählen Sie 1-1-2.**\r\n\r\r\n Ich bin kein Ersatz für professionelle medizinische Beratung, Diagnose oder Behandlung. \r\n\r\r\n Akzeptieren Sie dies und möchten Sie fortfahren?
+</t>
+  </si>
+  <si>
+    <t>![Logo](https://storageaccountcovidb8a3.blob.core.windows.net/covid-nl/Header.png)\r\n\nMerhaba, size Korona Virüs hastalık hakkinda bilgi vermek için buradayım. Acil bir tıbbi durumunuz veya yaşamını tehdit eden bir durumunuz varsa 1-1-2 seçeneğini belirleyin.**\r\n\r\r\nProfesyonel tıbbi tavsiye, teşhis ve tedavinin yerine geçmiyorum.\r\n\r\r\n Bunu kabul ediyormusunuz?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -698,11 +921,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1039,15 +1264,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD14"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="24.4375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5625" customWidth="1"/>
+    <col min="3" max="8" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,769 +1299,976 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
+      <c r="H1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
+      <c r="H3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
+      <c r="H4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+      <c r="H5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+      <c r="H6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
+      <c r="H7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
+      <c r="H8" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+      <c r="H9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
+      <c r="H10" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
+      <c r="H11" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
+      <c r="H12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
+      <c r="H13" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
+      <c r="H14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
+      <c r="H15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
+      <c r="H16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
+      <c r="H17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
+      <c r="H18" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
+      <c r="H19" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A20" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
+      <c r="H20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A22" t="s">
+      <c r="H21" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
+      <c r="H22" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
+      <c r="H23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A25" t="s">
+      <c r="H24" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
+      <c r="H25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A27" t="s">
+      <c r="H26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A27" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
+      <c r="H27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A28" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
+      <c r="H28" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A29" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A30" t="s">
+      <c r="H29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
+      <c r="H30" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A31" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A32" t="s">
+      <c r="H31" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A32" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
+      <c r="H32" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A33" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
+      <c r="H33" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A34" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="H34" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A1:G1 A2:G11 A12:G34" numberStoredAsText="1"/>
   </ignoredErrors>
